--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="H2">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="I2">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="J2">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="N2">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="O2">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="P2">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="Q2">
-        <v>4781.018947680959</v>
+        <v>3875.683240356872</v>
       </c>
       <c r="R2">
-        <v>43029.17052912863</v>
+        <v>34881.14916321186</v>
       </c>
       <c r="S2">
-        <v>0.6472202365148628</v>
+        <v>0.5787471427601992</v>
       </c>
       <c r="T2">
-        <v>0.6472202365148628</v>
+        <v>0.5787471427601991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="H3">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="I3">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="J3">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>41.283307</v>
       </c>
       <c r="O3">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="P3">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="Q3">
-        <v>951.5102190353961</v>
+        <v>856.6972285191999</v>
       </c>
       <c r="R3">
-        <v>8563.591971318565</v>
+        <v>7710.275056672799</v>
       </c>
       <c r="S3">
-        <v>0.1288086652133246</v>
+        <v>0.1279286883028176</v>
       </c>
       <c r="T3">
-        <v>0.1288086652133246</v>
+        <v>0.1279286883028176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="H4">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="I4">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="J4">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="N4">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="O4">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="P4">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="Q4">
-        <v>210.3160756557327</v>
+        <v>362.1462578442598</v>
       </c>
       <c r="R4">
-        <v>1892.844680901594</v>
+        <v>3259.316320598338</v>
       </c>
       <c r="S4">
-        <v>0.0284710898907453</v>
+        <v>0.05407849377529744</v>
       </c>
       <c r="T4">
-        <v>0.0284710898907453</v>
+        <v>0.05407849377529742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>41.283307</v>
       </c>
       <c r="I5">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="J5">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="N5">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="O5">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="P5">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="Q5">
-        <v>951.5102190353961</v>
+        <v>856.6972285191999</v>
       </c>
       <c r="R5">
-        <v>8563.591971318565</v>
+        <v>7710.275056672799</v>
       </c>
       <c r="S5">
-        <v>0.1288086652133246</v>
+        <v>0.1279286883028176</v>
       </c>
       <c r="T5">
-        <v>0.1288086652133246</v>
+        <v>0.1279286883028176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>41.283307</v>
       </c>
       <c r="I6">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="J6">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>41.283307</v>
       </c>
       <c r="O6">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="P6">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="Q6">
         <v>189.3679374284721</v>
@@ -815,10 +815,10 @@
         <v>1704.311436856249</v>
       </c>
       <c r="S6">
-        <v>0.02563528038520675</v>
+        <v>0.02827789215999727</v>
       </c>
       <c r="T6">
-        <v>0.02563528038520674</v>
+        <v>0.02827789215999726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>41.283307</v>
       </c>
       <c r="I7">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="J7">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="N7">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="O7">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="P7">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="Q7">
-        <v>41.85674589533234</v>
+        <v>80.05032304580422</v>
       </c>
       <c r="R7">
-        <v>376.710713057991</v>
+        <v>720.452907412238</v>
       </c>
       <c r="S7">
-        <v>0.005666267645992037</v>
+        <v>0.01195373637798226</v>
       </c>
       <c r="T7">
-        <v>0.005666267645992036</v>
+        <v>0.01195373637798226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="H8">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="I8">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="J8">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.14491266666666</v>
+        <v>62.25498566666667</v>
       </c>
       <c r="N8">
-        <v>207.434738</v>
+        <v>186.764957</v>
       </c>
       <c r="O8">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383142</v>
       </c>
       <c r="P8">
-        <v>0.8044999916189327</v>
+        <v>0.7607543248383141</v>
       </c>
       <c r="Q8">
-        <v>210.3160756557327</v>
+        <v>362.1462578442598</v>
       </c>
       <c r="R8">
-        <v>1892.844680901594</v>
+        <v>3259.316320598338</v>
       </c>
       <c r="S8">
-        <v>0.0284710898907453</v>
+        <v>0.05407849377529744</v>
       </c>
       <c r="T8">
-        <v>0.0284710898907453</v>
+        <v>0.05407849377529742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="H9">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="I9">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="J9">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>41.283307</v>
       </c>
       <c r="O9">
-        <v>0.1601102132445234</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="P9">
-        <v>0.1601102132445233</v>
+        <v>0.1681603168407971</v>
       </c>
       <c r="Q9">
-        <v>41.85674589533234</v>
+        <v>80.05032304580422</v>
       </c>
       <c r="R9">
-        <v>376.710713057991</v>
+        <v>720.452907412238</v>
       </c>
       <c r="S9">
-        <v>0.005666267645992037</v>
+        <v>0.01195373637798226</v>
       </c>
       <c r="T9">
-        <v>0.005666267645992036</v>
+        <v>0.01195373637798226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="H10">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="I10">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="J10">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.041671</v>
+        <v>5.817144666666667</v>
       </c>
       <c r="N10">
-        <v>9.125013000000001</v>
+        <v>17.451434</v>
       </c>
       <c r="O10">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088886</v>
       </c>
       <c r="P10">
-        <v>0.03538979513654388</v>
+        <v>0.07108535832088884</v>
       </c>
       <c r="Q10">
-        <v>9.251762472241003</v>
+        <v>33.83917207292844</v>
       </c>
       <c r="R10">
-        <v>83.26586225016902</v>
+        <v>304.552548656356</v>
       </c>
       <c r="S10">
-        <v>0.001252437599806545</v>
+        <v>0.005053128167609163</v>
       </c>
       <c r="T10">
-        <v>0.001252437599806545</v>
+        <v>0.005053128167609161</v>
       </c>
     </row>
   </sheetData>
